--- a/Proyectos/2015/12/P1397 - AECCON, XML+, Rufo Vazquez Casas _OC/Calidad/Checklist_Calidad_160104.xlsx
+++ b/Proyectos/2015/12/P1397 - AECCON, XML+, Rufo Vazquez Casas _OC/Calidad/Checklist_Calidad_160104.xlsx
@@ -27,7 +27,7 @@
     <t>Nombre del Proyecto</t>
   </si>
   <si>
-    <t>P1398 - CCON3, Luis Antonio Ochoa Pérez_OC</t>
+    <t>P1397 - AECCON, XML+, Rufo Vazquez Casas _OC</t>
   </si>
   <si>
     <t>Nombre del Responsable del Componente a Evaluar</t>
@@ -1204,8 +1204,8 @@
   </sheetPr>
   <dimension ref="1:42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
